--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_SonHa.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_SonHa.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -278,6 +278,12 @@
   <si>
     <t>NCFW, LK</t>
   </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
 </sst>
 </file>
 
@@ -497,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -718,9 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1112,41 +1115,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1191,58 +1194,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1267,23 +1270,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,7 +1312,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1340,7 +1343,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1372,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1401,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1427,7 +1430,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1456,7 +1459,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1516,7 +1519,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1545,7 +1548,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1574,7 +1577,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1603,7 +1606,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3380,39 +3383,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3457,58 +3460,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3533,23 +3536,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,7 +3578,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3606,7 +3609,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3635,7 +3638,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3664,7 +3667,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3693,7 +3696,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3722,7 +3725,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3751,7 +3754,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3782,7 +3785,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3840,7 +3843,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3869,7 +3872,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5646,39 +5649,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5723,58 +5726,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5799,23 +5802,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5841,7 +5844,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5872,7 +5875,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5901,7 +5904,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5930,7 +5933,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5959,7 +5962,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5988,7 +5991,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6017,7 +6020,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6048,7 +6051,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6077,7 +6080,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6106,7 +6109,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6135,7 +6138,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7912,39 +7915,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7989,58 +7992,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8065,23 +8068,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,7 +8110,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8138,7 +8141,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8167,7 +8170,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8196,7 +8199,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8225,7 +8228,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8254,7 +8257,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8283,7 +8286,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8314,7 +8317,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8343,7 +8346,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8372,7 +8375,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8401,7 +8404,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10178,39 +10181,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10255,58 +10258,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10331,23 +10334,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10373,7 +10376,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10404,7 +10407,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10433,7 +10436,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10462,7 +10465,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10491,7 +10494,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10520,7 +10523,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10549,7 +10552,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10580,7 +10583,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10609,7 +10612,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10638,7 +10641,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10667,7 +10670,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12412,7 +12415,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12444,41 +12447,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12523,58 +12526,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12599,23 +12602,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12626,7 +12629,7 @@
         <v>44818</v>
       </c>
       <c r="C6" s="61">
-        <v>44819</v>
+        <v>44823</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
@@ -12669,9 +12672,9 @@
       <c r="R6" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="76"/>
+      <c r="S6" s="75"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12683,16 +12686,30 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="B7" s="61">
+        <v>44823</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44823</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="38">
+        <v>868183038090465</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
+      <c r="I7" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="K7" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66"/>
       <c r="N7" s="64"/>
@@ -12700,9 +12717,9 @@
       <c r="P7" s="66"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="67"/>
-      <c r="S7" s="76"/>
+      <c r="S7" s="75"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12712,16 +12729,30 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="61">
+        <v>44823</v>
+      </c>
+      <c r="C8" s="61">
+        <v>44823</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183038077983</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="K8" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="L8" s="66"/>
       <c r="M8" s="66"/>
       <c r="N8" s="64"/>
@@ -12729,9 +12760,9 @@
       <c r="P8" s="66"/>
       <c r="Q8" s="64"/>
       <c r="R8" s="67"/>
-      <c r="S8" s="76"/>
+      <c r="S8" s="75"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12741,16 +12772,30 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="61">
+        <v>44823</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44823</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183038093006</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="I9" s="63" t="s">
+        <v>76</v>
+      </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
+      <c r="K9" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
       <c r="N9" s="64"/>
@@ -12758,9 +12803,9 @@
       <c r="P9" s="66"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="67"/>
-      <c r="S9" s="76"/>
+      <c r="S9" s="75"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12770,16 +12815,30 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="61">
+        <v>44823</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44823</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183038077959</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="64"/>
-      <c r="K10" s="75"/>
+      <c r="K10" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="64"/>
@@ -12787,9 +12846,9 @@
       <c r="P10" s="66"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="67"/>
-      <c r="S10" s="76"/>
+      <c r="S10" s="75"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12799,16 +12858,30 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="61">
+        <v>44823</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44823</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183038527797</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="63" t="s">
+        <v>66</v>
+      </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="75"/>
+      <c r="K11" s="66" t="s">
+        <v>68</v>
+      </c>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
       <c r="N11" s="64"/>
@@ -12816,9 +12889,9 @@
       <c r="P11" s="66"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="67"/>
-      <c r="S11" s="76"/>
+      <c r="S11" s="75"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12847,7 +12920,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12878,7 +12951,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12907,7 +12980,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12936,7 +13009,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12965,7 +13038,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14742,39 +14815,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14819,58 +14892,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14895,23 +14968,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14937,7 +15010,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14968,7 +15041,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14997,7 +15070,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15026,7 +15099,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15055,7 +15128,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15084,7 +15157,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15113,7 +15186,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15144,7 +15217,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15173,7 +15246,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15202,7 +15275,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15231,7 +15304,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17008,39 +17081,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17085,58 +17158,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17161,23 +17234,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17203,7 +17276,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17234,7 +17307,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17263,7 +17336,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17292,7 +17365,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17321,7 +17394,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17350,7 +17423,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17379,7 +17452,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17410,7 +17483,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17439,7 +17512,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17468,7 +17541,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17497,7 +17570,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19274,39 +19347,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19351,58 +19424,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19427,23 +19500,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19469,7 +19542,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19500,7 +19573,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19529,7 +19602,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19558,7 +19631,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19587,7 +19660,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19616,7 +19689,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19645,7 +19718,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19676,7 +19749,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19705,7 +19778,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19734,7 +19807,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19763,7 +19836,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_SonHa.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_SonHa.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -731,6 +731,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,30 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1115,41 +1115,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1194,58 +1194,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1270,23 +1270,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1343,7 +1343,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1372,7 +1372,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1519,7 +1519,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1548,7 +1548,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3322,13 +3322,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3340,6 +3333,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3383,39 +3383,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3460,58 +3460,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3536,23 +3536,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3578,7 +3578,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3609,7 +3609,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3696,7 +3696,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3725,7 +3725,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3785,7 +3785,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3814,7 +3814,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5588,6 +5588,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5599,13 +5606,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5649,39 +5649,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5726,58 +5726,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5802,23 +5802,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5844,7 +5844,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5875,7 +5875,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5933,7 +5933,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5991,7 +5991,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6051,7 +6051,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6080,7 +6080,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7854,6 +7854,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7865,13 +7872,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7915,39 +7915,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7992,58 +7992,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8068,23 +8068,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8110,7 +8110,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8141,7 +8141,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8170,7 +8170,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8228,7 +8228,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8257,7 +8257,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8286,7 +8286,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8317,7 +8317,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8404,7 +8404,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10120,6 +10120,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10131,13 +10138,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10181,39 +10181,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10258,58 +10258,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10334,23 +10334,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10407,7 +10407,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10465,7 +10465,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10523,7 +10523,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10583,7 +10583,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10612,7 +10612,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10641,7 +10641,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10670,7 +10670,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12386,6 +12386,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12397,13 +12404,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12414,8 +12414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12447,41 +12447,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12526,58 +12526,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12602,23 +12602,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="S6" s="75"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12711,15 +12711,25 @@
         <v>68</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="75"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12754,15 +12764,25 @@
         <v>68</v>
       </c>
       <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="75"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12797,15 +12817,25 @@
         <v>68</v>
       </c>
       <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="M9" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="75"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12840,15 +12870,25 @@
         <v>68</v>
       </c>
       <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="M10" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="67"/>
+      <c r="O10" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S10" s="75"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12883,15 +12923,25 @@
         <v>68</v>
       </c>
       <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="M11" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="67"/>
+      <c r="O11" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="75"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12920,7 +12970,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12951,7 +13001,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12980,7 +13030,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13009,7 +13059,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13038,7 +13088,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13156,7 +13206,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13657,7 +13707,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13689,7 +13739,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14754,6 +14804,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14765,13 +14822,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14815,39 +14865,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14892,58 +14942,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14968,23 +15018,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15010,7 +15060,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15041,7 +15091,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15070,7 +15120,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15099,7 +15149,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15128,7 +15178,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15157,7 +15207,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15186,7 +15236,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15217,7 +15267,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15246,7 +15296,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15275,7 +15325,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15304,7 +15354,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17020,6 +17070,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17031,13 +17088,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17081,39 +17131,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17158,58 +17208,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17234,23 +17284,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17276,7 +17326,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17307,7 +17357,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17336,7 +17386,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17365,7 +17415,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17394,7 +17444,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17423,7 +17473,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17452,7 +17502,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17483,7 +17533,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17512,7 +17562,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17541,7 +17591,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17570,7 +17620,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19286,6 +19336,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19297,13 +19354,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19347,39 +19397,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19424,58 +19474,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19500,23 +19550,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="91"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19542,7 +19592,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19573,7 +19623,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19602,7 +19652,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19631,7 +19681,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19660,7 +19710,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19689,7 +19739,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19718,7 +19768,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19749,7 +19799,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19778,7 +19828,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19807,7 +19857,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19836,7 +19886,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21067,13 +21117,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21085,6 +21128,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
